--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh00291\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32613E29-2882-47D1-8186-6EB908EE66CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C807D0C-E0C8-4CBA-B382-276FB3672D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Priority</t>
   </si>
@@ -39,9 +39,6 @@
     <t>So that…</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -54,46 +51,82 @@
     <t>So we can store the patient's info.</t>
   </si>
   <si>
-    <t>Employee(Nurse/Doctor)</t>
-  </si>
-  <si>
-    <t>Search for patient</t>
-  </si>
-  <si>
-    <t>Access patient information.</t>
-  </si>
-  <si>
-    <t>Edit Patient</t>
-  </si>
-  <si>
-    <t>Update patient's personal info.</t>
-  </si>
-  <si>
-    <t>Add Appointment</t>
-  </si>
-  <si>
-    <t>Edit Appointment</t>
-  </si>
-  <si>
-    <t>Cancel Appointment</t>
-  </si>
-  <si>
-    <t>We can have appointments to service patients.</t>
-  </si>
-  <si>
-    <t>We can edit existing appointments.</t>
-  </si>
-  <si>
-    <t>We can cancel appointments for busy patients.</t>
-  </si>
-  <si>
-    <t>Search for Appointment</t>
-  </si>
-  <si>
-    <t>Search for Patient Visit</t>
-  </si>
-  <si>
-    <t>Manage Patient Visit</t>
+    <t>Search for patient by Name or ID</t>
+  </si>
+  <si>
+    <t>quickly retrieve their information</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Edit Patient Information</t>
+  </si>
+  <si>
+    <t>Keep records up to date</t>
+  </si>
+  <si>
+    <t>flag a patient as inactive</t>
+  </si>
+  <si>
+    <t>restrict their ability to book appointments</t>
+  </si>
+  <si>
+    <t>add a new appointment for a patient</t>
+  </si>
+  <si>
+    <t>schedule their visit with a doctor</t>
+  </si>
+  <si>
+    <t>perform rountine health checks (blood pressure, temperature, etc.)</t>
+  </si>
+  <si>
+    <t>record necessary health data during visits</t>
+  </si>
+  <si>
+    <t>order lab tests for a patient</t>
+  </si>
+  <si>
+    <t>ensure the required tests are performed based on the doctor's instructions</t>
+  </si>
+  <si>
+    <t>view and edit lab test results</t>
+  </si>
+  <si>
+    <t>record the outcomes of the tests</t>
+  </si>
+  <si>
+    <t>enter a final diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete the visit record </t>
+  </si>
+  <si>
+    <t>view visit history for a patient</t>
+  </si>
+  <si>
+    <t>see previous diagnoses and treatments</t>
+  </si>
+  <si>
+    <t>Adminstrator</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>access the system and perform administrative tasks</t>
+  </si>
+  <si>
+    <t>view all visit records</t>
+  </si>
+  <si>
+    <t>analyze clinic perfromance</t>
+  </si>
+  <si>
+    <t>query visits within a date range</t>
+  </si>
+  <si>
+    <t>generate reports</t>
   </si>
 </sst>
 </file>
@@ -423,21 +456,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="23.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" customWidth="1"/>
+    <col min="4" max="4" width="77.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,108 +484,161 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C807D0C-E0C8-4CBA-B382-276FB3672D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76698073-90B0-4642-9E5C-649A57666C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:D15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +499,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -510,6 +513,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -521,6 +527,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -532,6 +541,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -543,6 +555,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -554,6 +569,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -565,6 +583,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -576,6 +597,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -587,6 +611,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -598,6 +625,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
@@ -609,6 +639,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
@@ -620,6 +653,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -631,6 +667,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jn00041\Documents\GitHub\J-JHealthSolutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76698073-90B0-4642-9E5C-649A57666C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C5ACC1-1468-45A2-B4C0-EEF56C8B86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Priority</t>
   </si>
@@ -51,9 +51,6 @@
     <t>So we can store the patient's info.</t>
   </si>
   <si>
-    <t>Search for patient by Name or ID</t>
-  </si>
-  <si>
     <t>quickly retrieve their information</t>
   </si>
   <si>
@@ -127,6 +124,21 @@
   </si>
   <si>
     <t>generate reports</t>
+  </si>
+  <si>
+    <t>edit an exisiting appointment</t>
+  </si>
+  <si>
+    <t>make any changes to an appointment</t>
+  </si>
+  <si>
+    <t>search for exisiting appointment</t>
+  </si>
+  <si>
+    <t>view information about an exisiting appointment</t>
+  </si>
+  <si>
+    <t>Search for patient by DOB or Name</t>
   </si>
 </sst>
 </file>
@@ -456,21 +468,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="23.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" customWidth="1"/>
-    <col min="4" max="4" width="77.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,12 +496,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -498,12 +510,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -512,177 +524,205 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
-    <sortCondition ref="A2:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortCondition ref="A2:A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
